--- a/natmiOut/OldD7/LR-pairs_lrc2p/Artn-Gfra3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Artn-Gfra3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Gfra3</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,60 +525,60 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.12131722901007</v>
+        <v>2.306751666666667</v>
       </c>
       <c r="H2">
-        <v>2.12131722901007</v>
+        <v>6.920255</v>
       </c>
       <c r="I2">
-        <v>0.8697445297252138</v>
+        <v>0.8617934705859058</v>
       </c>
       <c r="J2">
-        <v>0.8697445297252138</v>
+        <v>0.8617934705859057</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.79623303528599</v>
+        <v>0.024394</v>
       </c>
       <c r="N2">
-        <v>0.79623303528599</v>
+        <v>0.073182</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01368854235971825</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01368854235971825</v>
       </c>
       <c r="Q2">
-        <v>1.689062856059153</v>
+        <v>0.05627090015666666</v>
       </c>
       <c r="R2">
-        <v>1.689062856059153</v>
+        <v>0.50643810141</v>
       </c>
       <c r="S2">
-        <v>0.8697445297252138</v>
+        <v>0.01179669642744378</v>
       </c>
       <c r="T2">
-        <v>0.8697445297252138</v>
+        <v>0.01179669642744378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,52 +590,176 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.317694637704719</v>
+        <v>2.306751666666667</v>
       </c>
       <c r="H3">
-        <v>0.317694637704719</v>
+        <v>6.920255</v>
       </c>
       <c r="I3">
-        <v>0.1302554702747862</v>
+        <v>0.8617934705859058</v>
       </c>
       <c r="J3">
-        <v>0.1302554702747862</v>
+        <v>0.8617934705859057</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.79623303528599</v>
+        <v>1.757680333333333</v>
       </c>
       <c r="N3">
-        <v>0.79623303528599</v>
+        <v>5.273041</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9863114576402817</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9863114576402817</v>
       </c>
       <c r="Q3">
-        <v>0.2529589656737113</v>
+        <v>4.054532038383889</v>
       </c>
       <c r="R3">
-        <v>0.2529589656737113</v>
+        <v>36.490788345455</v>
       </c>
       <c r="S3">
-        <v>0.1302554702747862</v>
+        <v>0.849996774158462</v>
       </c>
       <c r="T3">
-        <v>0.1302554702747862</v>
+        <v>0.8499967741584619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.3699356666666667</v>
+      </c>
+      <c r="H4">
+        <v>1.109807</v>
+      </c>
+      <c r="I4">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="J4">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.024394</v>
+      </c>
+      <c r="N4">
+        <v>0.073182</v>
+      </c>
+      <c r="O4">
+        <v>0.01368854235971825</v>
+      </c>
+      <c r="P4">
+        <v>0.01368854235971825</v>
+      </c>
+      <c r="Q4">
+        <v>0.009024210652666667</v>
+      </c>
+      <c r="R4">
+        <v>0.081217895874</v>
+      </c>
+      <c r="S4">
+        <v>0.001891845932274475</v>
+      </c>
+      <c r="T4">
+        <v>0.001891845932274475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.3699356666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.109807</v>
+      </c>
+      <c r="I5">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="J5">
+        <v>0.1382065294140942</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.757680333333333</v>
+      </c>
+      <c r="N5">
+        <v>5.273041</v>
+      </c>
+      <c r="O5">
+        <v>0.9863114576402817</v>
+      </c>
+      <c r="P5">
+        <v>0.9863114576402817</v>
+      </c>
+      <c r="Q5">
+        <v>0.6502286458985556</v>
+      </c>
+      <c r="R5">
+        <v>5.852057813087</v>
+      </c>
+      <c r="S5">
+        <v>0.1363146834818197</v>
+      </c>
+      <c r="T5">
+        <v>0.1363146834818197</v>
       </c>
     </row>
   </sheetData>
